--- a/natmiOut/OldD2/LR-pairs_lrc2p/Osm-Osmr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Osm-Osmr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Osm</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.9191123042972</v>
+        <v>26.18311833333333</v>
       </c>
       <c r="H2">
-        <v>24.9191123042972</v>
+        <v>78.54935499999999</v>
       </c>
       <c r="I2">
-        <v>0.4473291013789873</v>
+        <v>0.4541216129859197</v>
       </c>
       <c r="J2">
-        <v>0.4473291013789873</v>
+        <v>0.4541216129859197</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>49.3400580501483</v>
+        <v>49.819498</v>
       </c>
       <c r="N2">
-        <v>49.3400580501483</v>
+        <v>99.63899599999999</v>
       </c>
       <c r="O2">
-        <v>0.2691854913695141</v>
+        <v>0.2618318601265323</v>
       </c>
       <c r="P2">
-        <v>0.2691854913695141</v>
+        <v>0.2055087336120834</v>
       </c>
       <c r="Q2">
-        <v>1229.510447652189</v>
+        <v>1304.429811441263</v>
       </c>
       <c r="R2">
-        <v>1229.510447652189</v>
+        <v>7826.578868647579</v>
       </c>
       <c r="S2">
-        <v>0.1204145039585859</v>
+        <v>0.1189035066517646</v>
       </c>
       <c r="T2">
-        <v>0.1204145039585859</v>
+        <v>0.09332595759061303</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.9191123042972</v>
+        <v>26.18311833333333</v>
       </c>
       <c r="H3">
-        <v>24.9191123042972</v>
+        <v>78.54935499999999</v>
       </c>
       <c r="I3">
-        <v>0.4473291013789873</v>
+        <v>0.4541216129859197</v>
       </c>
       <c r="J3">
-        <v>0.4473291013789873</v>
+        <v>0.4541216129859197</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>57.9499172349362</v>
+        <v>61.55916833333333</v>
       </c>
       <c r="N3">
-        <v>57.9499172349362</v>
+        <v>184.677505</v>
       </c>
       <c r="O3">
-        <v>0.3161584635724216</v>
+        <v>0.3235309908694582</v>
       </c>
       <c r="P3">
-        <v>0.3161584635724216</v>
+        <v>0.3809034785857257</v>
       </c>
       <c r="Q3">
-        <v>1444.060495602103</v>
+        <v>1611.810988973253</v>
       </c>
       <c r="R3">
-        <v>1444.060495602103</v>
+        <v>14506.29890075927</v>
       </c>
       <c r="S3">
-        <v>0.1414268814032126</v>
+        <v>0.1469224154245712</v>
       </c>
       <c r="T3">
-        <v>0.1414268814032126</v>
+        <v>0.1729765020872975</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.9191123042972</v>
+        <v>26.18311833333333</v>
       </c>
       <c r="H4">
-        <v>24.9191123042972</v>
+        <v>78.54935499999999</v>
       </c>
       <c r="I4">
-        <v>0.4473291013789873</v>
+        <v>0.4541216129859197</v>
       </c>
       <c r="J4">
-        <v>0.4473291013789873</v>
+        <v>0.4541216129859197</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>40.3903519202106</v>
+        <v>0.09273633333333332</v>
       </c>
       <c r="N4">
-        <v>40.3903519202106</v>
+        <v>0.278209</v>
       </c>
       <c r="O4">
-        <v>0.2203584097363422</v>
+        <v>0.0004873860161734429</v>
       </c>
       <c r="P4">
-        <v>0.2203584097363422</v>
+        <v>0.0005738152888401657</v>
       </c>
       <c r="Q4">
-        <v>1006.491715509814</v>
+        <v>2.42812638946611</v>
       </c>
       <c r="R4">
-        <v>1006.491715509814</v>
+        <v>21.853137505195</v>
       </c>
       <c r="S4">
-        <v>0.09857272940866064</v>
+        <v>0.0002213325238114654</v>
       </c>
       <c r="T4">
-        <v>0.09857272940866064</v>
+        <v>0.0002605819245240775</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,123 +714,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.9191123042972</v>
+        <v>26.18311833333333</v>
       </c>
       <c r="H5">
-        <v>24.9191123042972</v>
+        <v>78.54935499999999</v>
       </c>
       <c r="I5">
-        <v>0.4473291013789873</v>
+        <v>0.4541216129859197</v>
       </c>
       <c r="J5">
-        <v>0.4473291013789873</v>
+        <v>0.4541216129859197</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>35.6135709878234</v>
+        <v>42.64305566666667</v>
       </c>
       <c r="N5">
-        <v>35.6135709878234</v>
+        <v>127.929167</v>
       </c>
       <c r="O5">
-        <v>0.1942976353217221</v>
+        <v>0.2241152768476832</v>
       </c>
       <c r="P5">
-        <v>0.1942976353217221</v>
+        <v>0.2638581494961946</v>
       </c>
       <c r="Q5">
-        <v>887.458575002632</v>
+        <v>1116.528172615254</v>
       </c>
       <c r="R5">
-        <v>887.458575002632</v>
+        <v>10048.75355353728</v>
       </c>
       <c r="S5">
-        <v>0.08691498660852814</v>
+        <v>0.1017755910168558</v>
       </c>
       <c r="T5">
-        <v>0.08691498660852814</v>
+        <v>0.1198236884486918</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.7873289432736</v>
+        <v>26.18311833333333</v>
       </c>
       <c r="H6">
-        <v>30.7873289432736</v>
+        <v>78.54935499999999</v>
       </c>
       <c r="I6">
-        <v>0.5526708986210127</v>
+        <v>0.4541216129859197</v>
       </c>
       <c r="J6">
-        <v>0.5526708986210127</v>
+        <v>0.4541216129859197</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>49.3400580501483</v>
+        <v>36.158406</v>
       </c>
       <c r="N6">
-        <v>49.3400580501483</v>
+        <v>72.316812</v>
       </c>
       <c r="O6">
-        <v>0.2691854913695141</v>
+        <v>0.1900344861401527</v>
       </c>
       <c r="P6">
-        <v>0.2691854913695141</v>
+        <v>0.149155823017156</v>
       </c>
       <c r="Q6">
-        <v>1519.04859727013</v>
+        <v>946.7398230427099</v>
       </c>
       <c r="R6">
-        <v>1519.04859727013</v>
+        <v>5680.438938256259</v>
       </c>
       <c r="S6">
-        <v>0.1487709874109282</v>
+        <v>0.08629876736891655</v>
       </c>
       <c r="T6">
-        <v>0.1487709874109282</v>
+        <v>0.06773488293479328</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.7873289432736</v>
+        <v>31.31438633333333</v>
       </c>
       <c r="H7">
-        <v>30.7873289432736</v>
+        <v>93.94315899999999</v>
       </c>
       <c r="I7">
-        <v>0.5526708986210127</v>
+        <v>0.5431186404276995</v>
       </c>
       <c r="J7">
-        <v>0.5526708986210127</v>
+        <v>0.5431186404276995</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>57.9499172349362</v>
+        <v>49.819498</v>
       </c>
       <c r="N7">
-        <v>57.9499172349362</v>
+        <v>99.63899599999999</v>
       </c>
       <c r="O7">
-        <v>0.3161584635724216</v>
+        <v>0.2618318601265323</v>
       </c>
       <c r="P7">
-        <v>0.3161584635724216</v>
+        <v>0.2055087336120834</v>
       </c>
       <c r="Q7">
-        <v>1784.123164147461</v>
+        <v>1560.067007304727</v>
       </c>
       <c r="R7">
-        <v>1784.123164147461</v>
+        <v>9360.402043828362</v>
       </c>
       <c r="S7">
-        <v>0.1747315821692089</v>
+        <v>0.1422057638925778</v>
       </c>
       <c r="T7">
-        <v>0.1747315821692089</v>
+        <v>0.111615623995413</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>30.7873289432736</v>
+        <v>31.31438633333333</v>
       </c>
       <c r="H8">
-        <v>30.7873289432736</v>
+        <v>93.94315899999999</v>
       </c>
       <c r="I8">
-        <v>0.5526708986210127</v>
+        <v>0.5431186404276995</v>
       </c>
       <c r="J8">
-        <v>0.5526708986210127</v>
+        <v>0.5431186404276995</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>40.3903519202106</v>
+        <v>61.55916833333333</v>
       </c>
       <c r="N8">
-        <v>40.3903519202106</v>
+        <v>184.677505</v>
       </c>
       <c r="O8">
-        <v>0.2203584097363422</v>
+        <v>0.3235309908694582</v>
       </c>
       <c r="P8">
-        <v>0.2203584097363422</v>
+        <v>0.3809034785857257</v>
       </c>
       <c r="Q8">
-        <v>1243.511050702106</v>
+        <v>1927.687579548699</v>
       </c>
       <c r="R8">
-        <v>1243.511050702106</v>
+        <v>17349.18821593829</v>
       </c>
       <c r="S8">
-        <v>0.1217856803276816</v>
+        <v>0.1757157118972466</v>
       </c>
       <c r="T8">
-        <v>0.1217856803276816</v>
+        <v>0.2068757794236607</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,495 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>31.31438633333333</v>
+      </c>
+      <c r="H9">
+        <v>93.94315899999999</v>
+      </c>
+      <c r="I9">
+        <v>0.5431186404276995</v>
+      </c>
+      <c r="J9">
+        <v>0.5431186404276995</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.09273633333333332</v>
+      </c>
+      <c r="N9">
+        <v>0.278209</v>
+      </c>
+      <c r="O9">
+        <v>0.0004873860161734429</v>
+      </c>
+      <c r="P9">
+        <v>0.0005738152888401657</v>
+      </c>
+      <c r="Q9">
+        <v>2.903981369136778</v>
+      </c>
+      <c r="R9">
+        <v>26.135832322231</v>
+      </c>
+      <c r="S9">
+        <v>0.0002647084304675931</v>
+      </c>
+      <c r="T9">
+        <v>0.0003116497795314985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>31.31438633333333</v>
+      </c>
+      <c r="H10">
+        <v>93.94315899999999</v>
+      </c>
+      <c r="I10">
+        <v>0.5431186404276995</v>
+      </c>
+      <c r="J10">
+        <v>0.5431186404276995</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>42.64305566666667</v>
+      </c>
+      <c r="N10">
+        <v>127.929167</v>
+      </c>
+      <c r="O10">
+        <v>0.2241152768476832</v>
+      </c>
+      <c r="P10">
+        <v>0.2638581494961946</v>
+      </c>
+      <c r="Q10">
+        <v>1335.341119579839</v>
+      </c>
+      <c r="R10">
+        <v>12018.07007621855</v>
+      </c>
+      <c r="S10">
+        <v>0.1217211844605912</v>
+      </c>
+      <c r="T10">
+        <v>0.1433062794201419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>27</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>30.7873289432736</v>
-      </c>
-      <c r="H9">
-        <v>30.7873289432736</v>
-      </c>
-      <c r="I9">
-        <v>0.5526708986210127</v>
-      </c>
-      <c r="J9">
-        <v>0.5526708986210127</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>35.6135709878234</v>
-      </c>
-      <c r="N9">
-        <v>35.6135709878234</v>
-      </c>
-      <c r="O9">
-        <v>0.1942976353217221</v>
-      </c>
-      <c r="P9">
-        <v>0.1942976353217221</v>
-      </c>
-      <c r="Q9">
-        <v>1096.446724846744</v>
-      </c>
-      <c r="R9">
-        <v>1096.446724846744</v>
-      </c>
-      <c r="S9">
-        <v>0.107382648713194</v>
-      </c>
-      <c r="T9">
-        <v>0.107382648713194</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>31.31438633333333</v>
+      </c>
+      <c r="H11">
+        <v>93.94315899999999</v>
+      </c>
+      <c r="I11">
+        <v>0.5431186404276995</v>
+      </c>
+      <c r="J11">
+        <v>0.5431186404276995</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>36.158406</v>
+      </c>
+      <c r="N11">
+        <v>72.316812</v>
+      </c>
+      <c r="O11">
+        <v>0.1900344861401527</v>
+      </c>
+      <c r="P11">
+        <v>0.149155823017156</v>
+      </c>
+      <c r="Q11">
+        <v>1132.278294681518</v>
+      </c>
+      <c r="R11">
+        <v>6793.669768089107</v>
+      </c>
+      <c r="S11">
+        <v>0.1032112717468163</v>
+      </c>
+      <c r="T11">
+        <v>0.08100930780895237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.1591176666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.477353</v>
+      </c>
+      <c r="I12">
+        <v>0.002759746586380853</v>
+      </c>
+      <c r="J12">
+        <v>0.002759746586380853</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>49.819498</v>
+      </c>
+      <c r="N12">
+        <v>99.63899599999999</v>
+      </c>
+      <c r="O12">
+        <v>0.2618318601265323</v>
+      </c>
+      <c r="P12">
+        <v>0.2055087336120834</v>
+      </c>
+      <c r="Q12">
+        <v>7.927162276264667</v>
+      </c>
+      <c r="R12">
+        <v>47.562973657588</v>
+      </c>
+      <c r="S12">
+        <v>0.0007225895821899465</v>
+      </c>
+      <c r="T12">
+        <v>0.0005671520260573993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1591176666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.477353</v>
+      </c>
+      <c r="I13">
+        <v>0.002759746586380853</v>
+      </c>
+      <c r="J13">
+        <v>0.002759746586380853</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>61.55916833333333</v>
+      </c>
+      <c r="N13">
+        <v>184.677505</v>
+      </c>
+      <c r="O13">
+        <v>0.3235309908694582</v>
+      </c>
+      <c r="P13">
+        <v>0.3809034785857257</v>
+      </c>
+      <c r="Q13">
+        <v>9.795151227140556</v>
+      </c>
+      <c r="R13">
+        <v>88.156361044265</v>
+      </c>
+      <c r="S13">
+        <v>0.000892863547640402</v>
+      </c>
+      <c r="T13">
+        <v>0.001051197074767549</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1591176666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.477353</v>
+      </c>
+      <c r="I14">
+        <v>0.002759746586380853</v>
+      </c>
+      <c r="J14">
+        <v>0.002759746586380853</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.09273633333333332</v>
+      </c>
+      <c r="N14">
+        <v>0.278209</v>
+      </c>
+      <c r="O14">
+        <v>0.0004873860161734429</v>
+      </c>
+      <c r="P14">
+        <v>0.0005738152888401657</v>
+      </c>
+      <c r="Q14">
+        <v>0.01475598897522222</v>
+      </c>
+      <c r="R14">
+        <v>0.132803900777</v>
+      </c>
+      <c r="S14">
+        <v>1.345061894384422E-06</v>
+      </c>
+      <c r="T14">
+        <v>1.58358478458979E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1591176666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.477353</v>
+      </c>
+      <c r="I15">
+        <v>0.002759746586380853</v>
+      </c>
+      <c r="J15">
+        <v>0.002759746586380853</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>42.64305566666667</v>
+      </c>
+      <c r="N15">
+        <v>127.929167</v>
+      </c>
+      <c r="O15">
+        <v>0.2241152768476832</v>
+      </c>
+      <c r="P15">
+        <v>0.2638581494961946</v>
+      </c>
+      <c r="Q15">
+        <v>6.785263517216779</v>
+      </c>
+      <c r="R15">
+        <v>61.067371654951</v>
+      </c>
+      <c r="S15">
+        <v>0.0006185013702361934</v>
+      </c>
+      <c r="T15">
+        <v>0.0007281816273608918</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1591176666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.477353</v>
+      </c>
+      <c r="I16">
+        <v>0.002759746586380853</v>
+      </c>
+      <c r="J16">
+        <v>0.002759746586380853</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>36.158406</v>
+      </c>
+      <c r="N16">
+        <v>72.316812</v>
+      </c>
+      <c r="O16">
+        <v>0.1900344861401527</v>
+      </c>
+      <c r="P16">
+        <v>0.149155823017156</v>
+      </c>
+      <c r="Q16">
+        <v>5.753441193106001</v>
+      </c>
+      <c r="R16">
+        <v>34.520647158636</v>
+      </c>
+      <c r="S16">
+        <v>0.000524447024419926</v>
+      </c>
+      <c r="T16">
+        <v>0.000411632273410423</v>
       </c>
     </row>
   </sheetData>
